--- a/HefnyCopter 2 Calculations.xlsx
+++ b/HefnyCopter 2 Calculations.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Throttle Range" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Thr</t>
   </si>
@@ -134,9 +133,6 @@
   </si>
   <si>
     <t>Gyro(Y)</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -793,7 +789,7 @@
   <dimension ref="D3:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1019,7 @@
   <dimension ref="C4:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1046,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1062,7 +1058,7 @@
         <v>36</v>
       </c>
       <c r="N5" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="12">
         <v>1</v>
@@ -1084,7 +1080,7 @@
         <v>37</v>
       </c>
       <c r="N6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="12">
         <v>1</v>
@@ -1144,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1156,7 +1152,7 @@
         <v>18</v>
       </c>
       <c r="N10" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O10" s="12">
         <v>1</v>
@@ -1167,7 +1163,9 @@
       <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
@@ -1175,7 +1173,9 @@
       <c r="M11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="12">
+        <v>8</v>
+      </c>
       <c r="O11" s="12">
         <v>1</v>
       </c>
@@ -1185,7 +1185,9 @@
       <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
@@ -1193,7 +1195,9 @@
       <c r="M12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
       <c r="O12" s="12">
         <v>1</v>
       </c>
@@ -1262,20 +1266,20 @@
       </c>
       <c r="E17" s="9">
         <f>$E$10</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="4">
         <f>(F13*E13)+(F5*E5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4">
         <f>(F11*E11)+(F7*E7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I17" s="4">
         <f>SUM(E17:H17)</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>24</v>
@@ -1285,23 +1289,23 @@
       </c>
       <c r="N17" s="9">
         <f>$E$10</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O17" s="4">
         <f>-0.5*N6</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="P17" s="4">
         <f>(O13*N13)+(O5*N5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="4">
         <f>(O11*N11)+(O7*N7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R17" s="4">
         <f>SUM(N17:Q17)</f>
-        <v>4.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
@@ -1311,7 +1315,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ref="E18:E20" si="0">$E$10</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3">
         <f>(F12*E12)+(F6*E6)</f>
@@ -1320,11 +1324,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <f>-(F11*E11)-(F7*E7)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ref="I18:I20" si="1">SUM(E18:H18)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="11" t="s">
@@ -1332,23 +1336,23 @@
       </c>
       <c r="N18" s="10">
         <f t="shared" ref="N18:N20" si="2">$E$10</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O18" s="12">
         <f>(O12*N12)+(O6*N6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="12">
         <f>-0.5*N5</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q18" s="12">
         <f>-(O11*N11)-(O7*N7)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="R18" s="12">
         <f t="shared" ref="R18:R20" si="3">SUM(N18:Q18)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
@@ -1358,7 +1362,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3">
         <f>(-F12*E12)+(-F6*E6)</f>
@@ -1367,11 +1371,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3">
         <f>-(F11*E11)-(F7*E7)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="11" t="s">
@@ -1379,7 +1383,7 @@
       </c>
       <c r="N19" s="10">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O19" s="12">
         <f>(-O12*N12)</f>
@@ -1387,15 +1391,15 @@
       </c>
       <c r="P19" s="12">
         <f>-0.5*N5</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q19" s="12">
         <f>-(O11*N11)-(O7*N7)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="R19" s="12">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
@@ -1405,20 +1409,20 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
         <f>(-F13*E13)+(-F5*E5)</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="H20" s="3">
         <f>(F11*E11)+(F7*E7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="11" t="s">
@@ -1426,11 +1430,11 @@
       </c>
       <c r="N20" s="10">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O20" s="12">
         <f>-0.5*N6</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="P20" s="12">
         <f>(-O13*N13)</f>
@@ -1438,24 +1442,21 @@
       </c>
       <c r="Q20" s="12">
         <f>(O11*N11)+(O7*N7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20" s="12">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I21" s="13">
         <f>SUM(I17:I20)</f>
-        <v>20</v>
-      </c>
-      <c r="O21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R21" s="13">
         <f>SUM(R17:R20)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/HefnyCopter 2 Calculations.xlsx
+++ b/HefnyCopter 2 Calculations.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="9120" windowHeight="3705" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="9120" windowHeight="3705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Rx Reading" sheetId="2" r:id="rId2"/>
     <sheet name="Throttle Range" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Thr</t>
   </si>
@@ -133,6 +134,24 @@
   </si>
   <si>
     <t>Gyro(Y)</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Gyro Value</t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1527,4 +1546,72 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="I10">
+        <f>((J6-I6)/(F6-E6)*(E10-E6)+I6)</f>
+        <v>97.826086956521735</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HefnyCopter 2 Calculations.xlsx
+++ b/HefnyCopter 2 Calculations.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="9120" windowHeight="3705" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="9120" windowHeight="3705" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Rx Reading" sheetId="2" r:id="rId2"/>
     <sheet name="Throttle Range" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Timer" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Thr</t>
   </si>
@@ -152,12 +153,52 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>OV Time</t>
+  </si>
+  <si>
+    <t>TCNT_X OV</t>
+  </si>
+  <si>
+    <t>1 Sec Count</t>
+  </si>
+  <si>
+    <t>Timer 0</t>
+  </si>
+  <si>
+    <t>Timer 1</t>
+  </si>
+  <si>
+    <t>Timer1H</t>
+  </si>
+  <si>
+    <t>Timer 2</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>Tick time (sec)</t>
+  </si>
+  <si>
+    <t>Frequency Hz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,11 +399,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.000000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -416,30 +497,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:L8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:L8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="D3:L8"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="PINs" dataDxfId="8"/>
-    <tableColumn id="2" name="min" dataDxfId="7"/>
-    <tableColumn id="3" name="max" dataDxfId="6"/>
-    <tableColumn id="10" name="mid" dataDxfId="5">
+    <tableColumn id="1" name="PINs" dataDxfId="17"/>
+    <tableColumn id="2" name="min" dataDxfId="16"/>
+    <tableColumn id="3" name="max" dataDxfId="15"/>
+    <tableColumn id="10" name="mid" dataDxfId="14">
       <calculatedColumnFormula>(Table1[[#This Row],[max]]+Table1[[#This Row],[min]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="range" dataDxfId="4">
+    <tableColumn id="4" name="range" dataDxfId="13">
       <calculatedColumnFormula>F4-E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range/Div" dataDxfId="3">
+    <tableColumn id="6" name="Range/Div" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[range]]/$E$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Min2" dataDxfId="2">
+    <tableColumn id="8" name="Min2" dataDxfId="11">
       <calculatedColumnFormula>(Table1[[#This Row],[min]]-Table1[[#This Row],[mid]])/$E$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Max2" dataDxfId="1">
+    <tableColumn id="9" name="Max2" dataDxfId="10">
       <calculatedColumnFormula>(Table1[[#This Row],[max]]-Table1[[#This Row],[mid]])/$E$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Original PIN" dataDxfId="0"/>
+    <tableColumn id="5" name="Original PIN" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B6:H10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B6:H10"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Timer" dataDxfId="8"/>
+    <tableColumn id="2" name="Scale" dataDxfId="7"/>
+    <tableColumn id="7" name="Frequency Hz" dataDxfId="2">
+      <calculatedColumnFormula>$E$4/Table2[[#This Row],[Scale]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Tick time (sec)" dataDxfId="1">
+      <calculatedColumnFormula>1/Table2[[#This Row],[Frequency Hz]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="OV Time" dataDxfId="0">
+      <calculatedColumnFormula>256*Table2[[#This Row],[Tick time (sec)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="TCNT_X OV" dataDxfId="6"/>
+    <tableColumn id="6" name="1 Sec Count" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1552,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1614,4 +1717,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <f>$E$4/Table2[[#This Row],[Scale]]</f>
+        <v>2500000</v>
+      </c>
+      <c r="E7" s="17">
+        <f>1/Table2[[#This Row],[Frequency Hz]]</f>
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="F7" s="18">
+        <f>256*Table2[[#This Row],[Tick time (sec)]]</f>
+        <v>1.024E-4</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f>$E$4/Table2[[#This Row],[Scale]]</f>
+        <v>20000000</v>
+      </c>
+      <c r="E8" s="17">
+        <f>1/Table2[[#This Row],[Frequency Hz]]</f>
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="F8" s="18">
+        <f>256*Table2[[#This Row],[Tick time (sec)]]</f>
+        <v>1.2799999999999999E-5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G10" si="0">256*F8</f>
+        <v>3.2767999999999999E-3</v>
+      </c>
+      <c r="H8" s="16">
+        <f>1/G8</f>
+        <v>305.17578125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
+        <v>256</v>
+      </c>
+      <c r="D9" s="1">
+        <f>$E$4/Table2[[#This Row],[Scale]]</f>
+        <v>78125</v>
+      </c>
+      <c r="E9" s="17">
+        <f>1/Table2[[#This Row],[Frequency Hz]]</f>
+        <v>1.2799999999999999E-5</v>
+      </c>
+      <c r="F9" s="18">
+        <f>256*Table2[[#This Row],[Tick time (sec)]]</f>
+        <v>3.2767999999999999E-3</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <f>$E$4/Table2[[#This Row],[Scale]]</f>
+        <v>625000</v>
+      </c>
+      <c r="E10" s="17">
+        <f>1/Table2[[#This Row],[Frequency Hz]]</f>
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="F10" s="18">
+        <f>256*Table2[[#This Row],[Tick time (sec)]]</f>
+        <v>4.0959999999999998E-4</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1048576</v>
+      </c>
+      <c r="H10" s="16">
+        <f>1/G10</f>
+        <v>9.5367431640625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>